--- a/src/main/resources/rules.xlsx
+++ b/src/main/resources/rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JOB\rule_engine3\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F63C9397-791B-4D7E-9BA5-EBC0660663C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49442F56-DEAE-4653-8BA3-05DCA86107CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,8 +18,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="accType">Sheet1!$B$4:$B$7</definedName>
+    <definedName name="accountType">Sheet2!$B$5:$B$9</definedName>
+    <definedName name="accType">Sheet1!$N$4:$N$7</definedName>
     <definedName name="nameRule">Sheet2!$A$5:$A$7</definedName>
+    <definedName name="orgName">Sheet2!$D$5:$D$9</definedName>
+    <definedName name="orgName2">Sheet2!$D$5:$D$10</definedName>
     <definedName name="roleType">Sheet2!$C$5:$C$9</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="35">
   <si>
     <t>RULES START</t>
   </si>
@@ -107,6 +110,36 @@
   </si>
   <si>
     <t>RoleType</t>
+  </si>
+  <si>
+    <t>OrganizationName</t>
+  </si>
+  <si>
+    <t>O1</t>
+  </si>
+  <si>
+    <t>O2</t>
+  </si>
+  <si>
+    <t>O3</t>
+  </si>
+  <si>
+    <t>O4</t>
+  </si>
+  <si>
+    <t>O5</t>
+  </si>
+  <si>
+    <t>ClientName</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>shareHolding(in %)</t>
+  </si>
+  <si>
+    <t>(min)ShareholdingOfClient</t>
   </si>
 </sst>
 </file>
@@ -437,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection sqref="A1:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -448,96 +481,246 @@
     <col min="1" max="1" width="18.88671875" customWidth="1"/>
     <col min="2" max="2" width="19.21875" customWidth="1"/>
     <col min="3" max="3" width="15.21875" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" customWidth="1"/>
+    <col min="5" max="5" width="24.77734375" customWidth="1"/>
+    <col min="6" max="6" width="21.21875" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" customWidth="1"/>
+    <col min="9" max="9" width="12.21875" customWidth="1"/>
+    <col min="10" max="10" width="13.44140625" customWidth="1"/>
+    <col min="11" max="11" width="16.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="2" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3">
+        <v>2000</v>
+      </c>
+      <c r="M3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" t="s">
+      <c r="N3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
+      <c r="O3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4">
+        <v>30000</v>
+      </c>
+      <c r="M4" t="s">
         <v>23</v>
       </c>
-      <c r="B4" t="s">
+      <c r="O4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>11</v>
+      </c>
+      <c r="R4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="S4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
+    </row>
+    <row r="5" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5">
+        <v>1000</v>
+      </c>
+      <c r="M5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O5" t="s">
+        <v>13</v>
+      </c>
+      <c r="P5" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>15</v>
+      </c>
+      <c r="R5" t="s">
+        <v>13</v>
+      </c>
+      <c r="S5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6">
+        <v>2000</v>
+      </c>
+      <c r="M6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
         <v>10</v>
       </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="D8" t="s">
         <v>14</v>
       </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="E8">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <dataConsolidate/>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D9" xr:uid="{14D6E554-DB87-490B-8C7B-32602A9F20FF}">
+      <formula1>roleType</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C9" xr:uid="{CEED908D-73D8-4700-914F-D998CE6EBF14}">
+      <formula1>accountType</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B9" xr:uid="{C088435C-C3D8-47FC-9F8C-6697057ACCB1}">
+      <formula1>orgName2</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B3E5552-34CC-41BE-BD4B-FABAEC641B79}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E15"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -547,19 +730,28 @@
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -567,10 +759,13 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -580,29 +775,44 @@
       <c r="C7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>17</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5:A7" xr:uid="{403DDC30-B827-4465-8D42-442C2C998536}">
       <formula1>nameRule</formula1>
